--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2249758.969074749</v>
+        <v>-2252619.782867041</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015058</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015058</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032233</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>118.1014820586764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +738,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.103840706840074</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527771</v>
+        <v>9.064295316927918</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.31441560854683</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>2.011530135469262</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>225.403139763615</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>8.752991415778828</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>28.45573635156383</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.397348997494186</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>60.56183359050682</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>15.96049619059242</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>79.65153164289285</v>
+        <v>53.46337870236576</v>
       </c>
       <c r="G8" t="n">
-        <v>11.74167907658358</v>
+        <v>11.74167907658359</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.8724504177538</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>102.7383023476023</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>135.438182924131</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696369</v>
+        <v>93.83392671696373</v>
       </c>
       <c r="I9" t="n">
-        <v>23.7963092690662</v>
+        <v>23.7963092690663</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2924232858445</v>
+        <v>136.2924232858446</v>
       </c>
       <c r="T9" t="n">
         <v>192.4848946346715</v>
       </c>
       <c r="U9" t="n">
-        <v>146.9577313090211</v>
+        <v>225.8160311441933</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>98.70630911609871</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.025116863428</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.178826391195</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2319001807608</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>259.1741472872619</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>177.9413471369465</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.602497644398836</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060381</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174135</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833809</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>60.1172955077375</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I25" t="n">
-        <v>75.00788511618127</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634807</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.6830416206831</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722619</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417132</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576162</v>
@@ -2615,13 +2615,13 @@
         <v>327.752258470135</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X26" t="n">
         <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560551</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>139.9371893537541</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710077</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722619</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417131</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187867</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576162</v>
@@ -2855,7 +2855,7 @@
         <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.32649042089746</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>112.0357928422991</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634825</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701368</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,7 +3317,7 @@
         <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3433,7 +3433,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002292</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3746,13 +3746,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722639</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300.4385797407425</v>
+        <v>788.477863438847</v>
       </c>
       <c r="C2" t="n">
-        <v>34.06092317356492</v>
+        <v>788.477863438847</v>
       </c>
       <c r="D2" t="n">
-        <v>34.06092317356492</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="E2" t="n">
-        <v>34.06092317356492</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356492</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012046</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.2826908791755</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052536</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.51749475159</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030597</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991306</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358402</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601761</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946875</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298155</v>
+        <v>788.477863438847</v>
       </c>
       <c r="W2" t="n">
-        <v>686.1106626298155</v>
+        <v>788.477863438847</v>
       </c>
       <c r="X2" t="n">
-        <v>686.1106626298155</v>
+        <v>788.477863438847</v>
       </c>
       <c r="Y2" t="n">
-        <v>566.8162363079201</v>
+        <v>788.477863438847</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>511.9077020316311</v>
+        <v>180.334565405576</v>
       </c>
       <c r="C3" t="n">
-        <v>337.4546727505041</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>188.5202630892528</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>29.28280808379731</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>29.28280808379731</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699335</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.87400723023</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267537</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293586</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560883</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789492</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212813</v>
+        <v>1045.699666150542</v>
       </c>
       <c r="S3" t="n">
-        <v>887.883337816653</v>
+        <v>1045.699666150542</v>
       </c>
       <c r="T3" t="n">
-        <v>887.883337816653</v>
+        <v>1045.699666150542</v>
       </c>
       <c r="U3" t="n">
-        <v>887.883337816653</v>
+        <v>1045.699666150542</v>
       </c>
       <c r="V3" t="n">
-        <v>887.883337816653</v>
+        <v>810.5475579187996</v>
       </c>
       <c r="W3" t="n">
-        <v>887.883337816653</v>
+        <v>556.310201190598</v>
       </c>
       <c r="X3" t="n">
-        <v>887.883337816653</v>
+        <v>556.310201190598</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.1230390516992</v>
+        <v>348.5499024256441</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>656.8420206405923</v>
+        <v>186.2664961384241</v>
       </c>
       <c r="C4" t="n">
-        <v>656.8420206405923</v>
+        <v>186.2664961384241</v>
       </c>
       <c r="D4" t="n">
-        <v>506.7253812282565</v>
+        <v>186.2664961384241</v>
       </c>
       <c r="E4" t="n">
-        <v>358.8122876458634</v>
+        <v>38.35340255603094</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8122876458634</v>
+        <v>38.35340255603094</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2429270008669</v>
+        <v>38.35340255603094</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227043</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075528</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816801</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407061</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407061</v>
+        <v>848.0684854165363</v>
       </c>
       <c r="T4" t="n">
-        <v>700.5939555987204</v>
+        <v>622.5994491745506</v>
       </c>
       <c r="U4" t="n">
-        <v>700.5939555987204</v>
+        <v>622.5994491745506</v>
       </c>
       <c r="V4" t="n">
-        <v>700.5939555987204</v>
+        <v>367.9149609686638</v>
       </c>
       <c r="W4" t="n">
-        <v>700.5939555987204</v>
+        <v>367.9149609686638</v>
       </c>
       <c r="X4" t="n">
-        <v>700.5939555987204</v>
+        <v>367.9149609686638</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.5939555987204</v>
+        <v>367.9149609686638</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>827.1755808508576</v>
+        <v>677.2692571593337</v>
       </c>
       <c r="C5" t="n">
-        <v>560.7979242836798</v>
+        <v>677.2692571593337</v>
       </c>
       <c r="D5" t="n">
-        <v>294.4202677165018</v>
+        <v>677.2692571593337</v>
       </c>
       <c r="E5" t="n">
-        <v>294.4202677165018</v>
+        <v>410.8916005921557</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672984</v>
+        <v>403.9460998429522</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006024</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006024</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006024</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006024</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006024</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006024</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006024</v>
+        <v>677.2692571593337</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>574.4307792790801</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="C6" t="n">
-        <v>399.9777499979531</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="D6" t="n">
-        <v>399.9777499979531</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E6" t="n">
-        <v>240.7402949924976</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>94.20573701938255</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957456</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298711</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263948</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110289997</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557294</v>
+        <v>904.2569522304914</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891328</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212814</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212814</v>
+        <v>1033.087970558781</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212814</v>
+        <v>1033.087970558781</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212814</v>
+        <v>1033.087970558781</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212814</v>
+        <v>797.935862327038</v>
       </c>
       <c r="W6" t="n">
-        <v>782.2822794846129</v>
+        <v>543.6985055988364</v>
       </c>
       <c r="X6" t="n">
-        <v>574.4307792790801</v>
+        <v>335.8470053933036</v>
       </c>
       <c r="Y6" t="n">
-        <v>574.4307792790801</v>
+        <v>335.8470053933036</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>397.7299878263676</v>
+        <v>353.7012779513409</v>
       </c>
       <c r="C7" t="n">
-        <v>397.7299878263676</v>
+        <v>353.7012779513409</v>
       </c>
       <c r="D7" t="n">
-        <v>397.7299878263676</v>
+        <v>353.7012779513409</v>
       </c>
       <c r="E7" t="n">
-        <v>397.7299878263676</v>
+        <v>205.7881843689478</v>
       </c>
       <c r="F7" t="n">
-        <v>250.8400403284573</v>
+        <v>205.7881843689478</v>
       </c>
       <c r="G7" t="n">
-        <v>82.27067968346071</v>
+        <v>37.21882372395123</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>37.21882372395123</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227042</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075538</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006024</v>
+        <v>848.0684854165363</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006024</v>
+        <v>848.0684854165363</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006024</v>
+        <v>581.6908288493582</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001375</v>
+        <v>581.6908288493582</v>
       </c>
       <c r="W7" t="n">
-        <v>800.1710318001375</v>
+        <v>581.6908288493582</v>
       </c>
       <c r="X7" t="n">
-        <v>800.1710318001375</v>
+        <v>353.7012779513409</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.3784526566074</v>
+        <v>353.7012779513409</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1251.849245001341</v>
+        <v>1225.396565263434</v>
       </c>
       <c r="C8" t="n">
-        <v>882.886728060929</v>
+        <v>856.4340483230228</v>
       </c>
       <c r="D8" t="n">
-        <v>524.6210294541786</v>
+        <v>498.1683497162723</v>
       </c>
       <c r="E8" t="n">
-        <v>138.8327768559344</v>
+        <v>112.3800971180281</v>
       </c>
       <c r="F8" t="n">
-        <v>58.37668428735572</v>
+        <v>58.37668428735557</v>
       </c>
       <c r="G8" t="n">
-        <v>46.51640239181675</v>
+        <v>46.5164023918166</v>
       </c>
       <c r="H8" t="n">
-        <v>46.51640239181675</v>
+        <v>46.5164023918166</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181675</v>
+        <v>46.5164023918166</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229159</v>
+        <v>166.498936722915</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677483</v>
+        <v>397.0601716677465</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937556</v>
+        <v>719.9935330937528</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721573</v>
+        <v>1110.98855772157</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999416</v>
+        <v>1512.924098999411</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830551</v>
+        <v>1879.125171830545</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271717</v>
+        <v>2157.16831427171</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257576</v>
+        <v>2317.794388257569</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590837</v>
+        <v>2325.82011959083</v>
       </c>
       <c r="S8" t="n">
-        <v>2325.820119590837</v>
+        <v>2196.656028259766</v>
       </c>
       <c r="T8" t="n">
-        <v>2325.820119590837</v>
+        <v>2196.656028259766</v>
       </c>
       <c r="U8" t="n">
-        <v>2325.820119590837</v>
+        <v>1943.059292671127</v>
       </c>
       <c r="V8" t="n">
-        <v>1994.757232247267</v>
+        <v>1611.996405327556</v>
       </c>
       <c r="W8" t="n">
-        <v>1641.988576977152</v>
+        <v>1611.996405327556</v>
       </c>
       <c r="X8" t="n">
-        <v>1641.988576977152</v>
+        <v>1611.996405327556</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.849245001341</v>
+        <v>1611.996405327556</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>772.0630648731291</v>
+        <v>756.8474905974576</v>
       </c>
       <c r="C9" t="n">
-        <v>597.6100355920021</v>
+        <v>756.8474905974576</v>
       </c>
       <c r="D9" t="n">
-        <v>448.6756259307508</v>
+        <v>607.9130809362064</v>
       </c>
       <c r="E9" t="n">
         <v>448.6756259307508</v>
@@ -4875,58 +4875,58 @@
         <v>165.3348225797257</v>
       </c>
       <c r="H9" t="n">
-        <v>70.55307842117655</v>
+        <v>70.55307842117649</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181675</v>
+        <v>46.5164023918166</v>
       </c>
       <c r="J9" t="n">
-        <v>223.9894559067837</v>
+        <v>99.15933091977851</v>
       </c>
       <c r="K9" t="n">
-        <v>392.1194303282861</v>
+        <v>510.2734415371187</v>
       </c>
       <c r="L9" t="n">
-        <v>764.7088588093898</v>
+        <v>782.6674818295317</v>
       </c>
       <c r="M9" t="n">
-        <v>1101.936724006053</v>
+        <v>1119.895347026194</v>
       </c>
       <c r="N9" t="n">
-        <v>1462.498652257388</v>
+        <v>1480.457275277529</v>
       </c>
       <c r="O9" t="n">
-        <v>1770.122579918275</v>
+        <v>1788.081202938415</v>
       </c>
       <c r="P9" t="n">
-        <v>1997.68483622739</v>
+        <v>2015.64345924753</v>
       </c>
       <c r="Q9" t="n">
-        <v>2307.861496570691</v>
+        <v>2325.82011959083</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590837</v>
+        <v>2325.82011959083</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160691</v>
+        <v>2188.151005160684</v>
       </c>
       <c r="T9" t="n">
-        <v>1993.721818661023</v>
+        <v>1993.721818661016</v>
       </c>
       <c r="U9" t="n">
-        <v>1845.279665823628</v>
+        <v>1765.624817505265</v>
       </c>
       <c r="V9" t="n">
-        <v>1610.127557591885</v>
+        <v>1530.472709273522</v>
       </c>
       <c r="W9" t="n">
-        <v>1355.890200863684</v>
+        <v>1276.23535254532</v>
       </c>
       <c r="X9" t="n">
-        <v>1148.038700658151</v>
+        <v>1068.383852339788</v>
       </c>
       <c r="Y9" t="n">
-        <v>940.278401893197</v>
+        <v>860.6235535748337</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>364.9729053837924</v>
+        <v>510.2556264000269</v>
       </c>
       <c r="C10" t="n">
-        <v>196.0367224558854</v>
+        <v>341.31944347212</v>
       </c>
       <c r="D10" t="n">
-        <v>196.0367224558854</v>
+        <v>341.31944347212</v>
       </c>
       <c r="E10" t="n">
-        <v>196.0367224558854</v>
+        <v>193.406349889727</v>
       </c>
       <c r="F10" t="n">
-        <v>196.0367224558854</v>
+        <v>46.5164023918166</v>
       </c>
       <c r="G10" t="n">
-        <v>196.0367224558854</v>
+        <v>46.5164023918166</v>
       </c>
       <c r="H10" t="n">
-        <v>46.51640239181675</v>
+        <v>46.5164023918166</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181675</v>
+        <v>46.5164023918166</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909519</v>
+        <v>65.89540801909484</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736012</v>
+        <v>227.5779039736006</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632607</v>
+        <v>490.0022680632596</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794038</v>
+        <v>777.0810884794023</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620618</v>
+        <v>1062.768432620616</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257113</v>
+        <v>1310.630639257111</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325115</v>
+        <v>1499.198894325112</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718229</v>
+        <v>1546.318699718226</v>
       </c>
       <c r="R10" t="n">
-        <v>1546.318699718229</v>
+        <v>1546.318699718226</v>
       </c>
       <c r="S10" t="n">
-        <v>1546.318699718229</v>
+        <v>1348.158269020049</v>
       </c>
       <c r="T10" t="n">
-        <v>1546.318699718229</v>
+        <v>1348.158269020049</v>
       </c>
       <c r="U10" t="n">
-        <v>1257.195568222511</v>
+        <v>1348.158269020049</v>
       </c>
       <c r="V10" t="n">
-        <v>1257.195568222511</v>
+        <v>1348.158269020049</v>
       </c>
       <c r="W10" t="n">
-        <v>995.4035002555795</v>
+        <v>1058.741098983088</v>
       </c>
       <c r="X10" t="n">
-        <v>767.4139493575622</v>
+        <v>830.7515480850709</v>
       </c>
       <c r="Y10" t="n">
-        <v>546.621370214032</v>
+        <v>609.9589689415408</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1797.722346028744</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1797.722346028744</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1508.305175991783</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5279,22 +5279,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,7 +5312,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5601,19 +5601,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1327.139029956954</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>1106.346450813424</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5741,61 +5741,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192923</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111748</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107584</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797193</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.82229605222</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5987,16 +5987,16 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.345997432835</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>923.4098145049284</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D25" t="n">
-        <v>773.2931750925926</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E25" t="n">
-        <v>625.3800815101995</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F25" t="n">
-        <v>478.4901340122891</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G25" t="n">
-        <v>311.294034727169</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H25" t="n">
-        <v>169.5822035693672</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797193</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.776592304622</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.787041406605</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.994462263075</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797193</v>
@@ -6227,13 +6227,13 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6263,13 +6263,13 @@
         <v>3820.749612123005</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591811</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.528408326419</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.528408326419</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797193</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168619</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362688</v>
@@ -6461,25 +6461,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852258</v>
@@ -6506,7 +6506,7 @@
         <v>3094.515198591811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061504</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.043492616111</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.6725264685181</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406112</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797193</v>
@@ -6734,16 +6734,16 @@
         <v>4151.812499466576</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="33">
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384021</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797194</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380734</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231133</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
         <v>2179.340199382519</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547835</v>
@@ -6889,13 +6889,13 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
         <v>1280.33868158239</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
@@ -6965,22 +6965,22 @@
         <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797193</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474786</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7394,10 +7394,10 @@
         <v>1590.547811004715</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954146</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382519</v>
@@ -7588,28 +7588,28 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7843,7 +7843,7 @@
         <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X46" t="n">
         <v>1280.33868158239</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127162</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446527</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8149,7 +8149,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658814</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167812</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.262887399594547</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127288</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>245.4385214099377</v>
       </c>
       <c r="L9" t="n">
-        <v>101.2074628168586</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>27.3816465586481</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619748</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>32.37020221855997</v>
+        <v>94.80458942373643</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.9691616191767</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>81.91444712394139</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>108.2431272522977</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>172.2294825375385</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>226.4057028288535</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I25" t="n">
-        <v>6.257951202384234</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>85.772466035283</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>125.5054897610398</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>55.21102825632876</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50775.64226829656</v>
+        <v>50775.64226829655</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.1327398213</v>
       </c>
       <c r="D2" t="n">
         <v>61578.13273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="G2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="I2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>60535.99497675047</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="K2" t="n">
-        <v>60535.99497675047</v>
+        <v>60535.99497675046</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982125</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911926</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512972</v>
+        <v>331437.5228512951</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424124</v>
+        <v>563905.7843424141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.613050244486658e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911393</v>
+        <v>68999.15441911403</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.1433620118</v>
+        <v>99845.14336201129</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.676956956</v>
+        <v>147342.6769569565</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.612356754776556e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169912.65332604</v>
+        <v>169912.6533260399</v>
       </c>
       <c r="C4" t="n">
-        <v>252122.0652631776</v>
+        <v>252122.0652631774</v>
       </c>
       <c r="D4" t="n">
-        <v>158321.5536878361</v>
+        <v>158321.5536878366</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26430,7 +26430,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
         <v>11776.9762168058</v>
@@ -26442,22 +26442,22 @@
         <v>11776.9762168057</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680571</v>
+        <v>11776.9762168057</v>
       </c>
       <c r="L4" t="n">
         <v>19767.83547989919</v>
       </c>
       <c r="M4" t="n">
-        <v>19767.83547989917</v>
+        <v>19767.83547989918</v>
       </c>
       <c r="N4" t="n">
-        <v>19767.83547989918</v>
+        <v>19767.83547989921</v>
       </c>
       <c r="O4" t="n">
         <v>19767.83547989919</v>
       </c>
       <c r="P4" t="n">
-        <v>19767.83547989918</v>
+        <v>19767.83547989927</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426617</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543573</v>
+        <v>88290.79546543559</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-862272.7948532022</v>
+        <v>-862632.8778689202</v>
       </c>
       <c r="C6" t="n">
-        <v>-253591.7357276225</v>
+        <v>-253591.7357276223</v>
       </c>
       <c r="D6" t="n">
-        <v>-516471.7392647478</v>
+        <v>-516471.7392647461</v>
       </c>
       <c r="E6" t="n">
-        <v>-616269.2954063748</v>
+        <v>-616304.0333318122</v>
       </c>
       <c r="F6" t="n">
-        <v>-52363.51106396249</v>
+        <v>-52398.24898939817</v>
       </c>
       <c r="G6" t="n">
-        <v>-52363.51106396251</v>
+        <v>-52398.2489893982</v>
       </c>
       <c r="H6" t="n">
-        <v>-52363.51106396265</v>
+        <v>-52398.24898939818</v>
       </c>
       <c r="I6" t="n">
-        <v>-52363.51106396245</v>
+        <v>-52398.24898939827</v>
       </c>
       <c r="J6" t="n">
-        <v>-121362.6654830763</v>
+        <v>-121397.4034085121</v>
       </c>
       <c r="K6" t="n">
-        <v>-52363.51106396237</v>
+        <v>-52398.24898939807</v>
       </c>
       <c r="L6" t="n">
-        <v>-161198.9619560052</v>
+        <v>-161198.9619560047</v>
       </c>
       <c r="M6" t="n">
-        <v>-208696.4955509494</v>
+        <v>-208696.4955509499</v>
       </c>
       <c r="N6" t="n">
-        <v>-61353.81859399338</v>
+        <v>-61353.8185939934</v>
       </c>
       <c r="O6" t="n">
+        <v>-61353.81859399332</v>
+      </c>
+      <c r="P6" t="n">
         <v>-61353.81859399333</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-61353.81859399352</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>885.813286589679</v>
+        <v>885.8132865896775</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977093</v>
+        <v>581.4550298977075</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.758272820201</v>
+        <v>271.7582728201992</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519947</v>
+        <v>482.1622137519962</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962032</v>
+        <v>317.7411498962013</v>
       </c>
       <c r="E4" t="n">
-        <v>591.253258201939</v>
+        <v>591.2532582019409</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962032</v>
+        <v>317.7411498962013</v>
       </c>
       <c r="M4" t="n">
-        <v>591.253258201939</v>
+        <v>591.2532582019409</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962032</v>
+        <v>317.7411498962013</v>
       </c>
       <c r="M4" t="n">
-        <v>591.253258201939</v>
+        <v>591.2532582019409</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>69.18880955094178</v>
+        <v>270.4683023472711</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>268.1364565973772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,10 +27458,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>127.9188788795834</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.088229638349752</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27515,10 +27515,10 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.5175645733905</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.3706292003875</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>157.3307018998655</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917687</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>149.1202946442037</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>377.4849472402748</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>107.5669832348596</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>143.7525864147046</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27752,7 +27752,7 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>91.82032574534996</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>106.1900773342161</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117124</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>327.2245140988186</v>
+        <v>353.4126670393457</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.0051123819519</v>
+        <v>303.005112381952</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411815019</v>
+        <v>73.18818411815042</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177536</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0607682327524</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,16 +27929,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>63.794881302265</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>78.85829983517218</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>81.12567106583859</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413786</v>
+        <v>107.4132560413787</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169637</v>
+        <v>105.4699075169639</v>
       </c>
       <c r="S10" t="n">
-        <v>196.178826391195</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>221.1204706627545</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2319001807608</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>27.34885104932914</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-5.017259911264081e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.722562477088321e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-7.290996665696402e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-7.290996665696402e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.722562477088321e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.722562477088321e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350877</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582785</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551471</v>
+        <v>3.561058438551465</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381526</v>
+        <v>36.4696897338152</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522557</v>
+        <v>137.2877054522555</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490082</v>
+        <v>302.2403836490076</v>
       </c>
       <c r="K8" t="n">
-        <v>452.979987352892</v>
+        <v>452.9799873528913</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417117</v>
+        <v>561.9617295417107</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483014</v>
+        <v>625.2907025483004</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368358</v>
+        <v>635.4085598368348</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884896</v>
+        <v>599.9982849884885</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867501</v>
+        <v>512.0846547867492</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561254</v>
+        <v>384.5542494561248</v>
       </c>
       <c r="R8" t="n">
-        <v>223.692337140659</v>
+        <v>223.6923371406587</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849172</v>
+        <v>81.14761916849159</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475907</v>
+        <v>15.58853331475905</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841176</v>
+        <v>0.2848846750841171</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079687</v>
+        <v>1.905334239079684</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953277</v>
+        <v>18.40151751953274</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234888</v>
+        <v>65.60032358234878</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474366</v>
+        <v>180.0123019474363</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657756</v>
+        <v>307.6696959657751</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247365</v>
+        <v>413.6998750247358</v>
       </c>
       <c r="M9" t="n">
-        <v>482.768241191375</v>
+        <v>482.7682411913742</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139753</v>
+        <v>495.5456800139744</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059464</v>
+        <v>453.3274845059456</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730325</v>
+        <v>363.835272373032</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726983</v>
+        <v>243.2142442726979</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053161</v>
+        <v>118.2978574053159</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799329</v>
+        <v>35.39074781799323</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150139</v>
+        <v>7.679834060150126</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815584</v>
+        <v>0.1253509367815582</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719093</v>
+        <v>1.597368221719091</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401158</v>
+        <v>14.20205564401156</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587965</v>
+        <v>48.03721888587958</v>
       </c>
       <c r="J10" t="n">
-        <v>112.9339332755399</v>
+        <v>112.9339332755397</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051819</v>
+        <v>185.5851443051816</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817641</v>
+        <v>237.4850899817637</v>
       </c>
       <c r="M10" t="n">
-        <v>250.394729519112</v>
+        <v>250.3947295191116</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108865</v>
+        <v>244.4409025108861</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753497</v>
+        <v>225.7807373753494</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522801</v>
+        <v>193.1944256522797</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750415</v>
+        <v>133.7578062750413</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020576</v>
+        <v>71.82348386020563</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577728</v>
+        <v>27.83777164577723</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527033</v>
+        <v>6.825118765527021</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013246</v>
+        <v>0.0871291757301323</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
-        <v>303.4297552732313</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32242,7 +32242,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175688</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159425</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067264</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>188.4731159523455</v>
+        <v>303.4297552732299</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>593.5422977113948</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565758</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,7 +33020,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,16 +33032,16 @@
         <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>652.047896915769</v>
+        <v>444.2274915982882</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,10 +33257,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422587</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319844</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -34442,7 +34442,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.760073908902</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659561</v>
+        <v>245.5483596572289</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649633</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966408</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958066</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496797</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763038</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>123.5028874333356</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877692</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223219</v>
+        <v>121.1944791223214</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079115</v>
+        <v>232.8901363079107</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717245</v>
+        <v>326.1953145717235</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210287</v>
+        <v>394.9444693210277</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402449</v>
+        <v>405.9954962402439</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668028</v>
+        <v>369.9000735668018</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314806</v>
+        <v>280.8516590314796</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816759</v>
+        <v>162.2485595816753</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326526897</v>
+        <v>8.106799326526527</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>179.2657106211787</v>
+        <v>53.17467528076961</v>
       </c>
       <c r="K9" t="n">
-        <v>169.8282569914166</v>
+        <v>415.2667784013537</v>
       </c>
       <c r="L9" t="n">
-        <v>376.3529580617209</v>
+        <v>275.1454952448616</v>
       </c>
       <c r="M9" t="n">
-        <v>340.6342072693567</v>
+        <v>340.6342072693559</v>
       </c>
       <c r="N9" t="n">
-        <v>364.203967930642</v>
+        <v>364.2039679306412</v>
       </c>
       <c r="O9" t="n">
-        <v>310.731240061502</v>
+        <v>310.7312400615012</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587023</v>
+        <v>229.8608649587017</v>
       </c>
       <c r="Q9" t="n">
-        <v>313.3097579225259</v>
+        <v>313.3097579225255</v>
       </c>
       <c r="R9" t="n">
-        <v>18.14002325267292</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886711</v>
+        <v>19.57475315886691</v>
       </c>
       <c r="K10" t="n">
-        <v>163.315652479299</v>
+        <v>163.3156524792987</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420803</v>
+        <v>265.0751152420798</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809526</v>
+        <v>289.9786064809522</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901151</v>
+        <v>288.5730748901146</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893894</v>
+        <v>250.365865289389</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171736</v>
+        <v>190.4729849171732</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334715</v>
+        <v>47.59576302334692</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
-        <v>160.8335108287869</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236320508</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>45.87687150790109</v>
+        <v>160.8335108287855</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754089</v>
@@ -36446,13 +36446,13 @@
         <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>462.2005856280614</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121313</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754089</v>
@@ -36680,16 +36680,16 @@
         <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>509.9138629937507</v>
+        <v>302.0934576762699</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678997</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875399</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819473</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016747</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754089</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016747</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819473</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
